--- a/inst/extdata/cgmvariable_dictionary.xlsx
+++ b/inst/extdata/cgmvariable_dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alicecarr/Desktop/CGMprocessing/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78DF54BE-E327-5642-8169-1813572EB3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C970C6-FF6B-F242-8B52-F30FC1EE4729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="1780" windowWidth="20360" windowHeight="12040" xr2:uid="{95CED60D-52FF-9E44-B892-971B4CE0580C}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>old_vars</t>
   </si>
@@ -100,13 +100,16 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>expectedwear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,16 +129,29 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -143,13 +159,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,15 +498,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4196811C-C02D-BF4D-A15B-96DBE2D70C76}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -485,6 +519,9 @@
       <c r="C1" t="s">
         <v>13</v>
       </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -496,6 +533,9 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -507,6 +547,9 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -518,6 +561,9 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -529,6 +575,9 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -540,6 +589,9 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -551,6 +603,9 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -562,6 +617,9 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -573,6 +631,9 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -584,6 +645,9 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -595,6 +659,9 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -605,6 +672,9 @@
       </c>
       <c r="C12" t="s">
         <v>23</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -629,6 +699,12 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/inst/extdata/cgmvariable_dictionary.xlsx
+++ b/inst/extdata/cgmvariable_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alicecarr/Desktop/CGMprocessing/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C970C6-FF6B-F242-8B52-F30FC1EE4729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D13AE8-73FD-4B42-9244-7F634ADD5CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="1780" windowWidth="20360" windowHeight="12040" xr2:uid="{95CED60D-52FF-9E44-B892-971B4CE0580C}"/>
   </bookViews>
@@ -23,12 +23,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>old_vars</t>
   </si>
@@ -54,21 +65,12 @@
     <t>recordtype</t>
   </si>
   <si>
-    <t>Device</t>
-  </si>
-  <si>
     <t>Serial Number</t>
   </si>
   <si>
     <t>Device Timestamp</t>
   </si>
   <si>
-    <t>Historic Glucose mmol/L</t>
-  </si>
-  <si>
-    <t>Scan Glucose mmol/L</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -102,7 +104,19 @@
     <t>other</t>
   </si>
   <si>
-    <t>expectedwear</t>
+    <t>sensor_lifetime</t>
+  </si>
+  <si>
+    <t>Record Type</t>
+  </si>
+  <si>
+    <t>scan_yn</t>
+  </si>
+  <si>
+    <t>Historic Glucose(mmol/L)</t>
+  </si>
+  <si>
+    <t>Scan Glucose(mmol/L)</t>
   </si>
 </sst>
 </file>
@@ -500,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4196811C-C02D-BF4D-A15B-96DBE2D70C76}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,10 +531,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -528,10 +542,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>14</v>
@@ -542,10 +556,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -553,13 +567,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -567,13 +581,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>14</v>
@@ -581,13 +595,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>14</v>
@@ -595,13 +609,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -609,13 +623,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -623,13 +637,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -637,13 +651,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -651,13 +665,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -671,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -691,13 +705,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>10</v>

--- a/inst/extdata/cgmvariable_dictionary.xlsx
+++ b/inst/extdata/cgmvariable_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alicecarr/Desktop/CGMprocessing/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D13AE8-73FD-4B42-9244-7F634ADD5CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4820B7F3-EFC3-F642-A180-8F8E9AD67E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1780" windowWidth="20360" windowHeight="12040" xr2:uid="{95CED60D-52FF-9E44-B892-971B4CE0580C}"/>
+    <workbookView xWindow="1400" yWindow="1200" windowWidth="20360" windowHeight="12040" xr2:uid="{95CED60D-52FF-9E44-B892-971B4CE0580C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>timestamp</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>device</t>
-  </si>
-  <si>
     <t>libre</t>
   </si>
   <si>
@@ -95,18 +89,9 @@
     <t>record_type</t>
   </si>
   <si>
-    <t>pt_id</t>
-  </si>
-  <si>
-    <t>device_dt_tm</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
-    <t>sensor_lifetime</t>
-  </si>
-  <si>
     <t>Record Type</t>
   </si>
   <si>
@@ -117,6 +102,21 @@
   </si>
   <si>
     <t>Scan Glucose(mmol/L)</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>GLUCOSE</t>
+  </si>
+  <si>
+    <t>ID_VISIT_DEVICEID</t>
+  </si>
+  <si>
+    <t>deviceid</t>
+  </si>
+  <si>
+    <t>expecteddaysofwear</t>
   </si>
 </sst>
 </file>
@@ -216,9 +216,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -256,7 +256,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -362,7 +362,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -504,7 +504,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4196811C-C02D-BF4D-A15B-96DBE2D70C76}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,21 +531,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>14</v>
@@ -553,13 +553,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -567,13 +567,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>14</v>
@@ -595,13 +595,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>14</v>
@@ -609,13 +609,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -623,13 +623,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -637,13 +637,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -651,44 +651,44 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -705,13 +705,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>10</v>

--- a/inst/extdata/cgmvariable_dictionary.xlsx
+++ b/inst/extdata/cgmvariable_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alicecarr/Desktop/CGMprocessing/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4820B7F3-EFC3-F642-A180-8F8E9AD67E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6531105-DA4D-2241-A048-731291C2D702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="1200" windowWidth="20360" windowHeight="12040" xr2:uid="{95CED60D-52FF-9E44-B892-971B4CE0580C}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>Glucose Value (mmol/L)</t>
   </si>
   <si>
-    <t>dexcomg6</t>
-  </si>
-  <si>
     <t>record_type</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>expecteddaysofwear</t>
+  </si>
+  <si>
+    <t>dexcom</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,7 +534,7 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -542,7 +542,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -581,10 +581,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -615,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -629,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -640,10 +640,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -651,13 +651,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>14</v>
@@ -665,13 +665,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>14</v>
@@ -679,13 +679,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -705,13 +705,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>10</v>

--- a/inst/extdata/cgmvariable_dictionary.xlsx
+++ b/inst/extdata/cgmvariable_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alicecarr/Desktop/CGMprocessing/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6531105-DA4D-2241-A048-731291C2D702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CC06E0-E012-E442-B033-EFFBA9060E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1200" windowWidth="20360" windowHeight="12040" xr2:uid="{95CED60D-52FF-9E44-B892-971B4CE0580C}"/>
+    <workbookView xWindow="37460" yWindow="3000" windowWidth="20360" windowHeight="12040" xr2:uid="{95CED60D-52FF-9E44-B892-971B4CE0580C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>old_vars</t>
   </si>
@@ -117,13 +117,19 @@
   </si>
   <si>
     <t>dexcom</t>
+  </si>
+  <si>
+    <t>Event Type</t>
+  </si>
+  <si>
+    <t>eventtype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,29 +149,16 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -173,31 +166,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4196811C-C02D-BF4D-A15B-96DBE2D70C76}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,7 +693,18 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/inst/extdata/cgmvariable_dictionary.xlsx
+++ b/inst/extdata/cgmvariable_dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alicecarr/Desktop/CGMprocessing/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CC06E0-E012-E442-B033-EFFBA9060E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256E87B4-1B3C-CC4C-9076-A33C9B0FFE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37460" yWindow="3000" windowWidth="20360" windowHeight="12040" xr2:uid="{95CED60D-52FF-9E44-B892-971B4CE0580C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>old_vars</t>
   </si>
@@ -56,12 +56,6 @@
     <t>sensorglucose</t>
   </si>
   <si>
-    <t>scanglucose</t>
-  </si>
-  <si>
-    <t>recordtype</t>
-  </si>
-  <si>
     <t>Serial Number</t>
   </si>
   <si>
@@ -83,22 +77,13 @@
     <t>Glucose Value (mmol/L)</t>
   </si>
   <si>
-    <t>record_type</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
     <t>Record Type</t>
   </si>
   <si>
-    <t>scan_yn</t>
-  </si>
-  <si>
     <t>Historic Glucose(mmol/L)</t>
-  </si>
-  <si>
-    <t>Scan Glucose(mmol/L)</t>
   </si>
   <si>
     <t>TIMESTAMP</t>
@@ -487,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4196811C-C02D-BF4D-A15B-96DBE2D70C76}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,21 +491,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>14</v>
@@ -528,13 +513,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -542,13 +527,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -556,41 +541,41 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
         <v>10</v>
-      </c>
-      <c r="D6">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -598,13 +583,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -612,13 +597,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -626,13 +611,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>14</v>
@@ -640,13 +625,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>14</v>
@@ -654,13 +639,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -678,34 +663,6 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/cgmvariable_dictionary.xlsx
+++ b/inst/extdata/cgmvariable_dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alicecarr/Desktop/CGMprocessing/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256E87B4-1B3C-CC4C-9076-A33C9B0FFE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406F0CC3-9AC9-764C-9783-914959BBE30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37460" yWindow="3000" windowWidth="20360" windowHeight="12040" xr2:uid="{95CED60D-52FF-9E44-B892-971B4CE0580C}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>Record Type</t>
   </si>
   <si>
-    <t>Historic Glucose(mmol/L)</t>
-  </si>
-  <si>
     <t>TIMESTAMP</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>eventtype</t>
+  </si>
+  <si>
+    <t>Historic Glucose mmol/L</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -502,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -544,7 +544,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -558,10 +558,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -575,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -589,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -597,13 +597,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
